--- a/biology/Zoologie/Conus_franciscanus/Conus_franciscanus.xlsx
+++ b/biology/Zoologie/Conus_franciscanus/Conus_franciscanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus franciscanus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille d'une coquille adulte varie entre 22 mm et 47 mm. Il ressemble à Conus ventricosus Gmelin, 1791, mais sa couleur est plus foncée.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente dans l'océan Atlantique au large du Sénégal.
 </t>
@@ -576,17 +592,91 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Première description
-L'espèce Conus franciscanus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass (1731-1803) dans la publication intitulée « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798)[1],[2].
-Synonymes
-Conus (Lautoconus) franciscanus Bruguière, 1792 · non accepté
+          <t>Première description</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus franciscanus a été décrite pour la première fois en 1792 par le conchyliologiste danois Christian Hee Hwass (1731-1803) dans la publication intitulée « Encyclopédie méthodique ou par ordre de matières Histoire naturelle des vers - volume 1 » écrite par le naturaliste français Jean-Guillaume Bruguière (1750-1798),.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_franciscanus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_franciscanus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Lautoconus) franciscanus Bruguière, 1792 · non accepté
 Conus (Lautoconus) hybridus Kiener, 1847 · non accepté
 Conus hybridus Kiener, 1847 · non accepté
 Lautoconus franciscanus (Bruguière, 1792) · non accepté
 Lautoconus hybridus (Kiener, 1847) · non accepté
-Varioconus franciscanus (Hwass, 1792) · appellation alternative
-Identifiants taxinomiques
-Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus franciscanus dans les principales bases sont les suivants :
+Varioconus franciscanus (Hwass, 1792) · appellation alternative</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_franciscanus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_franciscanus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Identifiants taxinomiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chaque taxon catalogué par les bases de données biologiques et taxonomiques possède un identifiant qui permet d'établir un point de référence. Les identifiants de Conus franciscanus dans les principales bases sont les suivants :
 CoL : 7QSY8 - GBIF : 6510588 - IRMNG : 11706030 - WoRMS : 429965
 </t>
         </is>
